--- a/2021/Kassenabschluss/Spendenliste.xlsx
+++ b/2021/Kassenabschluss/Spendenliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Awo\2020\Kassenabschluss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2021\Kassenabschluss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789C8C61-A862-4631-9B33-60056840FA02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025E6296-AEF2-44A4-B8F8-10CF6CB834CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E37F186-036A-4202-8A9E-BB82E56DA9CE}"/>
   </bookViews>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -56,49 +63,118 @@
     <t>KSK SpB 3001734183</t>
   </si>
   <si>
-    <t>Stadt Waldenbuch Vereinsförderung</t>
-  </si>
-  <si>
     <t>Spenden</t>
   </si>
   <si>
-    <t>Weihnachtsbaumteam</t>
-  </si>
-  <si>
     <t>Ritter</t>
   </si>
   <si>
-    <t>anonyme spende</t>
-  </si>
-  <si>
-    <t>spende fr.walchner</t>
-  </si>
-  <si>
-    <t>Stadt Waldenbuch Corona Vereinsförderung</t>
-  </si>
-  <si>
-    <t>Trauerfeier Alex, Anteil Kreis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spenden Einnahmen 2020 </t>
-  </si>
-  <si>
-    <t>Ponde Spende</t>
-  </si>
-  <si>
-    <t>Vesperkirche Spende</t>
-  </si>
-  <si>
-    <t>Olgäle Spende</t>
-  </si>
-  <si>
-    <t>Ernst-Abbe Schule Spende</t>
-  </si>
-  <si>
-    <t>Individualhilfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spenden Ausgaben 2020 </t>
+    <t>Spende Fr.Heidenreich</t>
+  </si>
+  <si>
+    <t>Spende H.Kempf</t>
+  </si>
+  <si>
+    <t>Spende Fr.Seyfried</t>
+  </si>
+  <si>
+    <t>Spende Bihl</t>
+  </si>
+  <si>
+    <t>Spende Fr.Kappeler</t>
+  </si>
+  <si>
+    <t>Spende Fam. Ried</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>Spende Fam Weeber</t>
+  </si>
+  <si>
+    <t>Spende Fr.Staudenraus</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>Spende Fam. Binder</t>
+  </si>
+  <si>
+    <t>Spende Fam. Imig</t>
+  </si>
+  <si>
+    <t>Spende Fam. Hannemann</t>
+  </si>
+  <si>
+    <t>Wabu Vereinsförderung</t>
+  </si>
+  <si>
+    <t>12a</t>
+  </si>
+  <si>
+    <t>Spende P.Haas (Fehler Überw. 300-270)</t>
+  </si>
+  <si>
+    <t>Spende Fam. Riedel</t>
+  </si>
+  <si>
+    <t>Radservice Spenden</t>
+  </si>
+  <si>
+    <t>Spende Witschetzky</t>
+  </si>
+  <si>
+    <t>Spende G.Kliegl</t>
+  </si>
+  <si>
+    <t>Spende anonym</t>
+  </si>
+  <si>
+    <t>Trauerfeier Irion, Anteil Kreis</t>
+  </si>
+  <si>
+    <t>Spende Fr.Irion</t>
+  </si>
+  <si>
+    <t>Spende Kappeler Hochwasser</t>
+  </si>
+  <si>
+    <t>Anonyme Spende JHV</t>
+  </si>
+  <si>
+    <t>Spende W.Kayser</t>
+  </si>
+  <si>
+    <t>Spenden Busreise</t>
+  </si>
+  <si>
+    <t>Spende H.Lutz</t>
+  </si>
+  <si>
+    <t>Individualhilfe Fr.Heinz</t>
+  </si>
+  <si>
+    <t>Hochwasser Hilfe Spende Weiterleitung</t>
+  </si>
+  <si>
+    <t>Individualhilfe H.Petrasch</t>
+  </si>
+  <si>
+    <t>Individualhilfe Fam.Wolf</t>
+  </si>
+  <si>
+    <t>Individualhilfe S.Martin</t>
+  </si>
+  <si>
+    <t>Individualhilfe Anton Hans</t>
+  </si>
+  <si>
+    <t>Spenden Einnahmen 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spenden Ausgaben 2021 </t>
   </si>
 </sst>
 </file>
@@ -246,7 +322,632 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="147">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -667,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0845F9C3-6240-45DE-97DF-F58422BE2EA0}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,41 +1410,41 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>43860</v>
+        <v>44204</v>
       </c>
       <c r="B2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10">
-        <v>450</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E2" s="9">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>43860</v>
+        <v>44235</v>
       </c>
       <c r="B3" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -751,16 +1452,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>43860</v>
+        <v>44239</v>
       </c>
       <c r="B4" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10">
@@ -772,62 +1473,62 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>43868</v>
+        <v>44243</v>
       </c>
       <c r="B5" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="13">
-        <v>30</v>
-      </c>
-      <c r="F5" s="11"/>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10">
+        <v>100</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>43868</v>
+        <v>44244</v>
       </c>
       <c r="B6" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10">
         <v>10</v>
       </c>
-      <c r="E6" s="13">
-        <v>72</v>
-      </c>
-      <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>44063</v>
-      </c>
-      <c r="B7" s="14">
-        <v>25</v>
+        <v>44249</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10">
+        <v>100</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -835,20 +1536,20 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <v>44174</v>
-      </c>
-      <c r="B8" s="14">
-        <v>27</v>
-      </c>
-      <c r="C8" s="14" t="s">
+        <v>44252</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="11">
-        <v>209.73</v>
+        <v>9</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10">
+        <v>20</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -856,356 +1557,887 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>44174</v>
-      </c>
-      <c r="B9" s="14">
-        <v>28</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>16</v>
+        <v>44253</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>50</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>44233</v>
+      </c>
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="13">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>44257</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>50</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>44258</v>
+      </c>
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="11">
-        <v>115</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16">
-        <f>SUM(E2:F9)</f>
-        <v>2051.73</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11">
+        <v>20</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="A13" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11">
+        <v>50</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="A14" s="5">
+        <v>44259</v>
+      </c>
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11">
+        <v>450</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="5">
+        <v>44260</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>30</v>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>44280</v>
+      </c>
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11">
+        <v>50</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B17" s="14">
-        <v>37</v>
+        <v>44284</v>
+      </c>
+      <c r="B17" s="6">
+        <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="10">
-        <v>-400</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="18"/>
+      <c r="F17" s="11">
+        <v>50</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>43921</v>
+        <v>44287</v>
       </c>
       <c r="B18" s="6">
-        <v>38</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="10">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="13">
+        <v>100</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>43923</v>
+        <v>44301</v>
       </c>
       <c r="B19" s="6">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="10">
-        <v>-400</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="18"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <v>100</v>
+      </c>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>43924</v>
-      </c>
-      <c r="B20" s="6">
-        <v>42</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="B20" s="14">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="13">
         <v>10</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="10">
-        <v>-400</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="18"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>44195</v>
+        <v>44398</v>
       </c>
       <c r="B21" s="6">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10">
-        <v>-225</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="11">
+        <v>158.78</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>44403</v>
+      </c>
+      <c r="B22" s="6">
+        <v>23</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11">
+        <v>150</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>44406</v>
+      </c>
+      <c r="B23" s="14">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <v>100</v>
+      </c>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="1">
-        <f>SUM(E17:F21)</f>
-        <v>-1825</v>
+      <c r="A24" s="5">
+        <v>44452</v>
+      </c>
+      <c r="B24" s="14">
+        <v>25</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="11">
+        <v>49.5</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>44460</v>
+      </c>
+      <c r="B25" s="14">
+        <v>28</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="13">
+        <v>200</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>44510</v>
+      </c>
+      <c r="B26" s="14">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11">
+        <v>52.4</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>44552</v>
+      </c>
+      <c r="B27" s="14">
+        <v>34</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="11">
+        <v>200</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16">
+        <f>SUM(E2:I27)</f>
+        <v>2995.6800000000003</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>44272</v>
+      </c>
+      <c r="B34" s="6">
+        <v>18</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10">
+        <v>-100</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>44470</v>
+      </c>
+      <c r="B35" s="14">
+        <v>87</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>44531</v>
+      </c>
+      <c r="B36" s="6">
+        <v>116</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10">
+        <v>-75</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>44545</v>
+      </c>
+      <c r="B37" s="6">
+        <v>119</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10">
+        <v>-75</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>44550</v>
+      </c>
+      <c r="B38" s="6">
+        <v>121</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10">
+        <v>-75</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>44553</v>
+      </c>
+      <c r="B39" s="6">
+        <v>122</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10">
+        <v>-75</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="1">
+        <f>SUM(E34:I39)</f>
+        <v>-500</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8:I9 G7:I7 F5:I6 G2:I4">
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="122" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:I27 G26:I26 F25:I25 G24:I24 I23 F20:G22 G19 F17:G18 G16 F11:G15 E10:G10 H2:I22 G2:G9">
+    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="45" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
+    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:E13">
+    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:E19">
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:E20">
+    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E21">
+    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:F24">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
     <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="G23:H23">
     <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="E23:F23">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="D23">
     <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:E6">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="D25">
     <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:F7">
+  <conditionalFormatting sqref="F26">
     <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="D26">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="E27">
     <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D34">
     <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
+  <conditionalFormatting sqref="B37">
     <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D37">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="B38">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="A38">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
+  <conditionalFormatting sqref="A39">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D38">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{EB1EAA7F-F71E-4ACD-8E06-B836EA3BAA8C}">
-      <formula1>$K$1:$K$19</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D27" xr:uid="{425FA0DD-8BE8-4620-9873-F8D28F83CA03}">
+      <formula1>$K$1:$K$22</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D21" xr:uid="{942D11C5-6385-46D9-AB73-0F3DC6062CEA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34 D36:D39" xr:uid="{18DB1BFB-054F-4DD6-95F1-1813876EFB5D}">
       <formula1>$M$1:$M$20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35" xr:uid="{FC3B4B2A-DE5E-4B2F-9DD5-D98D1F5610A1}">
+      <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/2021/Kassenabschluss/Spendenliste.xlsx
+++ b/2021/Kassenabschluss/Spendenliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2021\Kassenabschluss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025E6296-AEF2-44A4-B8F8-10CF6CB834CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F34B3-D9B0-4572-B868-C080558F998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E37F186-036A-4202-8A9E-BB82E56DA9CE}"/>
   </bookViews>
@@ -186,7 +186,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-2];&quot;-&quot;#,##0.00&quot; &quot;[$€-2]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +206,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,9 +296,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,503 +318,21 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1370,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0845F9C3-6240-45DE-97DF-F58422BE2EA0}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,1002 +905,1003 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>44204</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8">
         <v>25</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>44235</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9">
         <v>50</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>44239</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9">
         <v>800</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>44243</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9">
         <v>100</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>44244</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9">
         <v>10</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>44249</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9">
         <v>100</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>44252</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9">
         <v>20</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>44253</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <v>50</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>44233</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="12">
         <v>20</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>44257</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
+      <c r="D11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <v>50</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>44258</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11">
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10">
         <v>20</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>44259</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="11">
+      <c r="D13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10">
         <v>50</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>44259</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="11">
+      <c r="D14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="10">
         <v>450</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>44260</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="D15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>30</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>44280</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11">
+      <c r="D16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="10">
         <v>50</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>44284</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11">
+      <c r="D17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10">
         <v>50</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>44287</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="D18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12">
         <v>100</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="8"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>44301</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>17</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
+      <c r="D19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>100</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>44377</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12">
         <v>10</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="8"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>44398</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>22</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="11">
+      <c r="D21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="10">
         <v>158.78</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>44403</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>23</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11">
+      <c r="D22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="10">
         <v>150</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>44406</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>24</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="D23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>100</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>44452</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>25</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="11">
+      <c r="D24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="10">
         <v>49.5</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>44460</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>28</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="12">
         <v>200</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="8"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>44510</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>32</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="11">
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10">
         <v>52.4</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>44552</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>34</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="11">
+      <c r="D27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10">
         <v>200</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16">
+      <c r="F29" s="19"/>
+      <c r="G29" s="20">
         <f>SUM(E2:I27)</f>
         <v>2995.6800000000003</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>44272</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>18</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10">
+      <c r="D34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9">
         <v>-100</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="18"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>44470</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>87</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10">
+      <c r="D35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9">
         <v>-100</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="18"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>44531</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>116</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10">
+      <c r="D36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9">
         <v>-75</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="18"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>44545</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>119</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10">
+      <c r="D37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9">
         <v>-75</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="18"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>44550</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>121</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10">
+      <c r="D38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9">
         <v>-75</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="18"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>44553</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>122</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10">
+      <c r="D39" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9">
         <v>-75</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E41" t="s">
+      <c r="E41" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="1">
+      <c r="F41" s="21"/>
+      <c r="G41" s="22">
         <f>SUM(E34:I39)</f>
         <v>-500</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="122" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:I27 G26:I26 F25:I25 G24:I24 I23 F20:G22 G19 F17:G18 G16 F11:G15 E10:G10 H2:I22 G2:G9">
-    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="45" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="43" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="cellIs" dxfId="42" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="41" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="40" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="39" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="cellIs" dxfId="38" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="35" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="34" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="31" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="28" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="26" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="cellIs" dxfId="25" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="cellIs" dxfId="24" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2429,7 +1955,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D27" xr:uid="{425FA0DD-8BE8-4620-9873-F8D28F83CA03}">
       <formula1>$K$1:$K$22</formula1>
     </dataValidation>
@@ -2441,6 +1967,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CSpendenliste</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>